--- a/data/data_calendarSpreads/ASIANPAINT.xlsx
+++ b/data/data_calendarSpreads/ASIANPAINT.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C212"/>
+  <dimension ref="A1:C213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2727,13 +2727,24 @@
     </row>
     <row r="212">
       <c r="A212" s="3" t="n">
-        <v>43583.55525253806</v>
+        <v>43583.55525253807</v>
       </c>
       <c r="B212" t="n">
         <v>1455.9</v>
       </c>
       <c r="C212" t="n">
         <v>1461.1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="3" t="n">
+        <v>43585.48990039182</v>
+      </c>
+      <c r="B213" t="n">
+        <v>1470.15</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1471.15</v>
       </c>
     </row>
   </sheetData>
